--- a/Excel_Files/CONCERTO_Month.xlsx
+++ b/Excel_Files/CONCERTO_Month.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hld.net\dfs\users\JCOSTA\personaldata\KLx\Concerto\Project Management\Communications\Monthly_Communications\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hld.net\dfs\users\JCOSTA\personaldata\KLx\Concerto\Project Management\Communications\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="3555" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="DELIVER" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="132">
   <si>
     <t>TO START DEVELOPMENT</t>
   </si>
@@ -218,12 +218,6 @@
     <t>BST_SPRINT_35</t>
   </si>
   <si>
-    <t>During the month of July, BST team had the chance to deliver the scope of Sprint 34 in Production</t>
-  </si>
-  <si>
-    <t>Also, started the development of Sprint 35 in Dev Environment</t>
-  </si>
-  <si>
     <t>BACKLOG</t>
   </si>
   <si>
@@ -272,15 +266,6 @@
     <t>Based on the chart, we can see that since Sprint 22, BST team have reached a higher maturity, ensuring the delivery of the planned scope.</t>
   </si>
   <si>
-    <t>In terms of backlog, highlight for the 7% of topics in Production and the 70% of listed tickets for French Scope.</t>
-  </si>
-  <si>
-    <t>Regarding Sprint 34, even thought BST team has reached the goal of 56 Storypoints planned for the sprint, its important to highlight that some of the planned tickets were not completely finished.</t>
-  </si>
-  <si>
-    <t>In the meantime, while debuging and better analysis, BST team had the chance to work in some other smaller tickets that made possible the deliver of 106%.</t>
-  </si>
-  <si>
     <t>IMAGE5</t>
   </si>
   <si>
@@ -429,6 +414,30 @@
   </si>
   <si>
     <t>MAJOR</t>
+  </si>
+  <si>
+    <t>During the month of July, BST team had the chance to work the scope of Sprint 34 in Production and start the development of Sprint 35.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regarding the release of this two sprints, will be ok the week of 19th of August, waiting for the final date to open the RTC change request. </t>
+  </si>
+  <si>
+    <t>Week of 19th August</t>
+  </si>
+  <si>
+    <t>Regarding Sprint 34, even thought BST team has over passed  the goal of 56 Storypoints planned for the sprint, reaching 60 Storypoints , its important to highlight that some of the planned tickets were not completely finished on the sprint window but achieved in the meantime.</t>
+  </si>
+  <si>
+    <t>In terms of backlog, highlight for the 68% of topics in Production and the 18% of listed tickets for Performance Scope.</t>
+  </si>
+  <si>
+    <t>In the meantime, while debuging and better analysis, BST team had the chance to work in some other smaller tickets that made possible the deliver of 119%.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We can also check the current difference between ACR and Defects, where 13 were created in the last couple of days. For the future, we will share as well how many we create per month. </t>
+  </si>
+  <si>
+    <t>List of tickets from Sprint 34 already on PREPROD environment, waiting for the next Production Release.</t>
   </si>
 </sst>
 </file>
@@ -439,7 +448,7 @@
     <numFmt numFmtId="164" formatCode="mmmm"/>
     <numFmt numFmtId="165" formatCode="dd\.mmm\.yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -473,6 +482,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -514,7 +529,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -589,6 +604,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -597,9 +615,6 @@
   </cellStyles>
   <dxfs count="37">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -655,6 +670,9 @@
         <b/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -889,8 +907,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table104" displayName="Table104" ref="A50:F51" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
-  <autoFilter ref="A50:F51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table104" displayName="Table104" ref="A53:F54" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+  <autoFilter ref="A53:F54"/>
   <tableColumns count="6">
     <tableColumn id="1" name="TICKETS" dataDxfId="28"/>
     <tableColumn id="2" name="ESTIMATED" dataDxfId="27"/>
@@ -920,35 +938,35 @@
   <tableColumns count="3">
     <tableColumn id="2" name="JIRA" dataDxfId="16"/>
     <tableColumn id="3" name="DESCRIPTION" dataDxfId="15"/>
-    <tableColumn id="1" name="PRIORITY" dataDxfId="0"/>
+    <tableColumn id="1" name="PRIORITY" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="PROJECTOS" displayName="PROJECTOS" ref="A4:B6" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="PROJECTOS" displayName="PROJECTOS" ref="A4:B6" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A4:B6"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="SIGLA" dataDxfId="12"/>
-    <tableColumn id="2" name="PROJECT" dataDxfId="11"/>
+    <tableColumn id="1" name="SIGLA" dataDxfId="11"/>
+    <tableColumn id="2" name="PROJECT" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="MESES" displayName="MESES" ref="C12:C24" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="MESES" displayName="MESES" ref="C12:C24" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="C12:C24"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="MONTH" dataDxfId="8"/>
+    <tableColumn id="1" name="MONTH" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="E4:E10" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="E4:E10" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="E4:E10"/>
   <tableColumns count="1">
     <tableColumn id="1" name="PLANNING_START_END"/>
@@ -958,20 +976,20 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A12:A17" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A12:A17" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A12:A17"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="TYPE" dataDxfId="4"/>
+    <tableColumn id="1" name="TYPE" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="E12:E21" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="E12:E21" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
   <autoFilter ref="E12:E21"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="STATUS" dataDxfId="1"/>
+    <tableColumn id="1" name="STATUS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1240,10 +1258,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1276,7 +1294,7 @@
         <v>52</v>
       </c>
       <c r="B3" s="5">
-        <v>45504</v>
+        <v>45505</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="5"/>
@@ -1286,7 +1304,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1352,12 +1370,12 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1365,24 +1383,24 @@
     </row>
     <row r="15" spans="1:4" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B15" s="30"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="5">
-        <v>45528</v>
+        <v>76</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1390,350 +1408,334 @@
     </row>
     <row r="19" spans="1:3" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B19" s="30"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
     </row>
-    <row r="41" spans="1:3" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="B41" s="30"/>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="1"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="18"/>
+    </row>
+    <row r="44" spans="1:3" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="30"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="18"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="18"/>
-    </row>
-    <row r="49" spans="1:6" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="30" t="s">
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="18"/>
+    </row>
+    <row r="52" spans="1:6" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="30"/>
+    </row>
+    <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="B49" s="30"/>
-    </row>
-    <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="23" t="s">
+      <c r="C53" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="B50" s="23" t="s">
+      <c r="E53" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C50" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" s="23" t="s">
+      <c r="F53" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E50" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="F50" s="23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="19">
-        <v>81</v>
-      </c>
-      <c r="B51" s="19">
-        <v>62</v>
-      </c>
-      <c r="C51" s="19">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="19">
+        <v>91</v>
+      </c>
+      <c r="B54" s="19">
+        <v>72</v>
+      </c>
+      <c r="C54" s="19">
         <v>10</v>
       </c>
-      <c r="D51" s="19">
+      <c r="D54" s="19">
         <f>Table104[[#This Row],[TICKETS]]-Table104[[#This Row],[ESTIMATED]]</f>
         <v>19</v>
       </c>
-      <c r="E51" s="17">
-        <v>292</v>
-      </c>
-      <c r="F51" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="19"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="20"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="20"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="20"/>
+      <c r="E54" s="17">
+        <v>349</v>
+      </c>
+      <c r="F54" s="20">
+        <v>6</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="25" t="s">
-        <v>71</v>
-      </c>
+      <c r="A55" s="19"/>
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
@@ -1741,8 +1743,8 @@
       <c r="F55" s="20"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="26" t="s">
-        <v>76</v>
+      <c r="A56" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="B56" s="19"/>
       <c r="C56" s="19"/>
@@ -1751,43 +1753,78 @@
       <c r="F56" s="20"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="18"/>
+      <c r="A57" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="20"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B58" s="1"/>
+      <c r="A58" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="20"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="24" t="s">
-        <v>75</v>
+      <c r="A59" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="20"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="31" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="22"/>
+      <c r="A61" s="18"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>72</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="B62" s="1"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
-        <v>66</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="22"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="22" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="5">
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A52:B52"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A19:B19"/>
   </mergeCells>
@@ -1804,7 +1841,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>AUTOMATION!$C$13:$C$24</xm:f>

--- a/Excel_Files/CONCERTO_Month.xlsx
+++ b/Excel_Files/CONCERTO_Month.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="134">
   <si>
     <t>TO START DEVELOPMENT</t>
   </si>
@@ -438,6 +438,12 @@
   </si>
   <si>
     <t>List of tickets from Sprint 34 already on PREPROD environment, waiting for the next Production Release.</t>
+  </si>
+  <si>
+    <t>IMAGE0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this picture above we can see the the amont of tickets delivered on the last sprints. </t>
   </si>
 </sst>
 </file>
@@ -602,11 +608,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -907,8 +913,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table104" displayName="Table104" ref="A53:F54" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
-  <autoFilter ref="A53:F54"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table104" displayName="Table104" ref="A54:F55" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+  <autoFilter ref="A54:F55"/>
   <tableColumns count="6">
     <tableColumn id="1" name="TICKETS" dataDxfId="28"/>
     <tableColumn id="2" name="ESTIMATED" dataDxfId="27"/>
@@ -1258,10 +1264,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1309,10 +1315,10 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:4" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="31"/>
     </row>
     <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1382,10 +1388,10 @@
       <c r="A14" s="18"/>
     </row>
     <row r="15" spans="1:4" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="30"/>
+      <c r="B15" s="31"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
@@ -1407,10 +1413,10 @@
       <c r="A18" s="18"/>
     </row>
     <row r="19" spans="1:3" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="30"/>
+      <c r="B19" s="31"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
@@ -1646,106 +1652,103 @@
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="18"/>
-    </row>
-    <row r="44" spans="1:3" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="30" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="30"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="22" t="s">
-        <v>66</v>
-      </c>
+      <c r="B45" s="31"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="18"/>
-    </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="18"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="22" t="s">
-        <v>127</v>
-      </c>
+      <c r="B49" s="1"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="22" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="18"/>
-    </row>
-    <row r="52" spans="1:6" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="30" t="s">
+    <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="18"/>
+    </row>
+    <row r="53" spans="1:6" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B52" s="30"/>
-    </row>
-    <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="23" t="s">
+      <c r="B53" s="31"/>
+    </row>
+    <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="23" t="s">
+      <c r="B54" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C53" s="23" t="s">
+      <c r="C54" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D53" s="23" t="s">
+      <c r="D54" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E53" s="23" t="s">
+      <c r="E54" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="F53" s="23" t="s">
+      <c r="F54" s="23" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="19">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="19">
         <v>91</v>
       </c>
-      <c r="B54" s="19">
+      <c r="B55" s="19">
         <v>72</v>
       </c>
-      <c r="C54" s="19">
+      <c r="C55" s="19">
         <v>10</v>
       </c>
-      <c r="D54" s="19">
+      <c r="D55" s="19">
         <f>Table104[[#This Row],[TICKETS]]-Table104[[#This Row],[ESTIMATED]]</f>
         <v>19</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E55" s="17">
         <v>349</v>
       </c>
-      <c r="F54" s="20">
+      <c r="F55" s="20">
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="19"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="20"/>
-    </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="A56" s="19"/>
       <c r="B56" s="19"/>
       <c r="C56" s="19"/>
       <c r="D56" s="19"/>
@@ -1753,8 +1756,8 @@
       <c r="F56" s="20"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="25" t="s">
-        <v>68</v>
+      <c r="A57" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
@@ -1764,7 +1767,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
@@ -1773,8 +1776,8 @@
       <c r="F58" s="20"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="26" t="s">
-        <v>128</v>
+      <c r="A59" s="25" t="s">
+        <v>69</v>
       </c>
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
@@ -1783,39 +1786,49 @@
       <c r="F59" s="20"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="31" t="s">
+      <c r="A60" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="20"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="30" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="18"/>
-    </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="18"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B62" s="1"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="22" t="s">
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="22" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="24" t="s">
+    <row r="65" spans="1:1" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="22"/>
-    </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="22"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="22" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="22" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1823,8 +1836,8 @@
   <dataConsolidate/>
   <mergeCells count="5">
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A53:B53"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A19:B19"/>
   </mergeCells>

--- a/Excel_Files/CONCERTO_Month.xlsx
+++ b/Excel_Files/CONCERTO_Month.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="135">
   <si>
     <t>TO START DEVELOPMENT</t>
   </si>
@@ -444,6 +444,9 @@
   </si>
   <si>
     <t xml:space="preserve">In this picture above we can see the the amont of tickets delivered on the last sprints. </t>
+  </si>
+  <si>
+    <t>LAST SPRINTS</t>
   </si>
 </sst>
 </file>
@@ -913,8 +916,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table104" displayName="Table104" ref="A54:F55" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
-  <autoFilter ref="A54:F55"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table104" displayName="Table104" ref="A57:F58" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+  <autoFilter ref="A57:F58"/>
   <tableColumns count="6">
     <tableColumn id="1" name="TICKETS" dataDxfId="28"/>
     <tableColumn id="2" name="ESTIMATED" dataDxfId="27"/>
@@ -1264,10 +1267,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1652,133 +1655,115 @@
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="22"/>
+    </row>
+    <row r="44" spans="1:3" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="B44" s="31"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="22" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="22" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B45" s="31"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="22"/>
+    </row>
+    <row r="48" spans="1:3" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" s="31"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="22" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="18"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B49" s="1"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="18"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="22" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="22" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="22" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="18"/>
-    </row>
-    <row r="53" spans="1:6" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="31" t="s">
+    <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="18"/>
+    </row>
+    <row r="56" spans="1:6" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="31"/>
-    </row>
-    <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="23" t="s">
+      <c r="B56" s="31"/>
+    </row>
+    <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="23" t="s">
+      <c r="B57" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="C57" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D54" s="23" t="s">
+      <c r="D57" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E54" s="23" t="s">
+      <c r="E57" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="F54" s="23" t="s">
+      <c r="F57" s="23" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="19">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="19">
         <v>91</v>
       </c>
-      <c r="B55" s="19">
+      <c r="B58" s="19">
         <v>72</v>
       </c>
-      <c r="C55" s="19">
+      <c r="C58" s="19">
         <v>10</v>
       </c>
-      <c r="D55" s="19">
+      <c r="D58" s="19">
         <f>Table104[[#This Row],[TICKETS]]-Table104[[#This Row],[ESTIMATED]]</f>
         <v>19</v>
       </c>
-      <c r="E55" s="17">
+      <c r="E58" s="17">
         <v>349</v>
       </c>
-      <c r="F55" s="20">
+      <c r="F58" s="20">
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="19"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="20"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="20"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="20"/>
-    </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="25" t="s">
-        <v>69</v>
-      </c>
+      <c r="A59" s="19"/>
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
       <c r="D59" s="19"/>
@@ -1786,8 +1771,8 @@
       <c r="F59" s="20"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="26" t="s">
-        <v>128</v>
+      <c r="A60" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="B60" s="19"/>
       <c r="C60" s="19"/>
@@ -1796,50 +1781,81 @@
       <c r="F60" s="20"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="30" t="s">
+      <c r="A61" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="20"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="20"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="20"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="30" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="18"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="18"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B63" s="1"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="22" t="s">
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="22" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:1" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="24" t="s">
+    <row r="68" spans="1:2" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="22"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="22"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="22" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="22" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A56:B56"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A44:B44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
